--- a/results/minimal_seats-Hungary.xlsx
+++ b/results/minimal_seats-Hungary.xlsx
@@ -14,54 +14,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>ASZ</t>
-  </si>
-  <si>
-    <t>FKG</t>
-  </si>
-  <si>
-    <t>Fid</t>
-  </si>
-  <si>
-    <t>KDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA </t>
-  </si>
-  <si>
-    <t>MDF</t>
-  </si>
-  <si>
-    <t>MSZ</t>
-  </si>
-  <si>
-    <t>SZD</t>
-  </si>
-  <si>
-    <t>MIÉ</t>
-  </si>
-  <si>
-    <t>LMP</t>
-  </si>
-  <si>
-    <t>Oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK </t>
-  </si>
-  <si>
-    <t>Egy</t>
-  </si>
-  <si>
-    <t>MNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No </t>
+    <t>ASZ - Agrarian Alliance (Agrárszövetség, ASZ)</t>
+  </si>
+  <si>
+    <t>FKGP - Independent Smallholders Party (Független Kisgazdapárt, FKGP)</t>
+  </si>
+  <si>
+    <t>Fidesz-MPP - Alliance of Young Democrats-Hungarian Civic Party (Fiatal Demokraták Szövetsége-Magyar Polgári Párt, Fidesz-MPP)</t>
+  </si>
+  <si>
+    <t>KDNP - Christian-Democratic People's Party (Keresztenydemokrata
+ Neppitrt (KDNP), KDNP)</t>
+  </si>
+  <si>
+    <t>LA - Liberal Alliance - Party of Entrepreneurs (Liberális Szövetség-Vállalkozók Pártja, LA)</t>
+  </si>
+  <si>
+    <t>MDF - Hungarian Democratic Forum (Magyar Demokrata Fórum, MDF)</t>
+  </si>
+  <si>
+    <t>MSZP - Hungarian Socialist Party (Magyar Szocialista Pirt, MSZP)</t>
+  </si>
+  <si>
+    <t>SZDSZ - Alliance of Free Democrats (Szabad Demokrathk Szovetstge, SZDSZ)</t>
+  </si>
+  <si>
+    <t>MIÉP - Party of Hungarian Justice and Life (Magyar Igazságés Élet Párt, MIÉP)</t>
+  </si>
+  <si>
+    <t>LMP - Politics Can be Different (Lehet Más a Politika, LMP)</t>
+  </si>
+  <si>
+    <t>MIÉP-Jobbik - Party of Hungarian Justice and Life-Jobbik The Third Way (Magyar Igazság és Élet Pártja/Jobbik a Harmadik Út, MIÉP-Jobbik)</t>
+  </si>
+  <si>
+    <t>Other - Other</t>
+  </si>
+  <si>
+    <t>DK - Democratic Coalition (Demokratikus Koalíció, DK)</t>
+  </si>
+  <si>
+    <t>Együtt - Together - Party for a New Era (Együtt, Együtt)</t>
+  </si>
+  <si>
+    <t>MNOO - National Self-Government of Germans in Hungary (Magyarországi Németek Országos Önkormányzata, MNOO)</t>
+  </si>
+  <si>
+    <t>No acronym - Independent (Ind., No acronym)</t>
   </si>
   <si>
     <t>1994</t>
@@ -440,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,10 +499,13 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -525,9 +532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -548,9 +555,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -562,9 +569,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -579,9 +586,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -589,19 +596,19 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -609,16 +616,16 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -626,13 +633,10 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>0</v>
       </c>
       <c r="N8">
@@ -642,6 +646,9 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
     </row>
